--- a/kadai4/day2/4619055_辰川力駆_実験4-4.xlsx
+++ b/kadai4/day2/4619055_辰川力駆_実験4-4.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai4/day2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE99B98-7419-F74F-BBE5-5BBB532B9329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7D8088-1162-464F-AE9C-E60AADD8D745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2260" windowWidth="28300" windowHeight="17440" xr2:uid="{0B843D80-DB02-4F44-80A6-9C47A06B03E5}"/>
+    <workbookView xWindow="3760" yWindow="2260" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{0B843D80-DB02-4F44-80A6-9C47A06B03E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="回帰分析" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F3D780-D03E-8345-91A1-1431F5D74ABE}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6E31B9-A9F6-C74B-862A-A3F88A69EEFA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
